--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E5084-8AEA-4A06-A0FD-6160A0D45C12}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCB8BE-284B-42BE-9EDA-AE83C9D15801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11710" yWindow="2360" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
   <si>
     <t>할일</t>
   </si>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>개선된 코드 Table.java, Menu.java. Storage.java, Member.java,Final.java 를 git commit 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table.java 에서 중복으로 주문한 메뉴는 수량으로 표시되게 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 주문창 기능 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선된 코드 Table.java를 git commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드가 지저분. Refactoring 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1138,14 +1154,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.23046875" customWidth="1"/>
-    <col min="5" max="5" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="19.15234375" customWidth="1"/>
+    <col min="2" max="2" width="65.61328125" customWidth="1"/>
+    <col min="3" max="3" width="13.921875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1168,7 +1186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="140" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,13 +1206,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43595</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
@@ -1295,8 +1325,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CCB8BE-284B-42BE-9EDA-AE83C9D15801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653A956-FAB2-48DF-97A5-6B580E788D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="2140" yWindow="0" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>할일</t>
   </si>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>코드가 지저분. Refactoring 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제창 생성, 회원 검색 기능과 현금 결제, 카드 결제 구분 기능 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1226,13 +1234,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43596</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ㄱ소공\팀프\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1653A956-FAB2-48DF-97A5-6B580E788D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B5CC2D-9B17-428C-9F05-E40EF2B7733E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>할일</t>
   </si>
@@ -74,39 +74,81 @@
     <t>코드 커버리지가 낮음. 개선필요</t>
   </si>
   <si>
+    <t>웹페이지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹디자인에 맞춰서 앉자 웹페이지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos system의 ChickenStore_Table.java 수정.
+테이블 수 추가, 삭제 기능 만들기
+주문 내역이 팝업창으로 뜨지 않고 옆에 고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>코드 간소화</t>
+  </si>
+  <si>
+    <t>기존 코드의 'Chicken Store' 관련 코드 수정 및 개발하려는 시스템에 불필요한 기능 삭제</t>
+  </si>
+  <si>
+    <t>개선된 코드 Table.java, Menu.java. Storage.java, Member.java,Final.java 를 git commit 함</t>
+  </si>
+  <si>
+    <t>메뉴 주문창 기능 개선</t>
+  </si>
+  <si>
+    <t>Table.java 에서 중복으로 주문한 메뉴는 수량으로 표시되게 수정</t>
+  </si>
+  <si>
+    <t>개선된 코드 Table.java를 git commit함</t>
+  </si>
+  <si>
+    <t>기능 수정</t>
+  </si>
+  <si>
+    <t>결제창 생성, 회원 검색 기능과 현금 결제, 카드 결제 구분 기능 추가</t>
+  </si>
+  <si>
+    <t>코드 기능 간소화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 코드의 'Chicken Store' 관련 코드 수정 및 개발하려는 시스템에 불필요한 기능 삭제</t>
+    <t>테이블 추가, 수정 기능 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개선된 코드 Table.java, Menu.java. Storage.java, Member.java,Final.java 를 git commit 함</t>
+    <t>Table.java에서 테이블 수 추가, 삭제하는 기능 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Table.java 에서 중복으로 주문한 메뉴는 수량으로 표시되게 수정</t>
+    <t>테이블 추가 버튼을 누르면 테이블이 추가되고 테이블 삭제 버튼을 누르면 테이블 하나가 삭제된다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 주문창 기능 개선</t>
+    <t>추가, 삭제한 결과가 업데이트 되는 속도가 느리다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개선된 코드 Table.java를 git commit함</t>
+    <t>주문팝업창 오른쪽에 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>코드가 지저분. Refactoring 필요</t>
+    <t>주문시에 팝업창이 뜨지 않고 오른쪽에 표시되도록 고정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 수정</t>
+    <t>2019-05-09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>결제창 생성, 회원 검색 기능과 현금 결제, 카드 결제 구분 기능 추가</t>
+    <t>반복되는 과정을 배열과 반복문을 이용하여 코드 간소화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문시에 뜨는 팝업창이 테이블 버튼의 오른쪽으로 고정됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,8 +195,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,8 +351,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D46C7571-941F-AD4B-94C8-83666430A1CC}" name="Table13" displayName="Table13" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{4E226D53-8B78-D74B-AEA9-0667C9B5EEFE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7B0DB81B-F367-C943-8F36-2937E2F1F42C}" name="할일" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{2B7D4B8D-CE65-B244-A444-786AB4D654DE}" name="내용" dataDxfId="16"/>
@@ -635,20 +695,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" customWidth="1"/>
+    <col min="4" max="4" width="14.31640625" customWidth="1"/>
+    <col min="5" max="5" width="26.31640625" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,45 +728,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="44.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>43597</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="41.05" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
         <v>43594</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>43597</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="47.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -714,7 +774,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="47.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -722,7 +782,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -730,7 +790,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -738,7 +798,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -746,7 +806,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -754,7 +814,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -762,7 +822,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -770,7 +830,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -778,7 +838,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -786,7 +846,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -794,7 +854,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -814,15 +874,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="27.1328125" customWidth="1"/>
+    <col min="2" max="2" width="40.2265625" customWidth="1"/>
+    <col min="3" max="3" width="9.953125" customWidth="1"/>
+    <col min="4" max="4" width="10.40625" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,61 +910,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="60.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43594</v>
+      </c>
+      <c r="D3" s="8">
+        <v>43596</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.75">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43595</v>
+      </c>
+      <c r="D4" s="8">
         <v>43597</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D3" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43596</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -904,7 +988,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -912,7 +996,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -920,7 +1004,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -928,7 +1012,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -936,7 +1020,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -944,7 +1028,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -952,7 +1036,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -960,7 +1044,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -968,7 +1052,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -976,11 +1060,28 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -990,12 +1091,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1015,45 +1116,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.75">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>43594</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>43597</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.75">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6">
         <v>43594</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>43597</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1061,7 +1162,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1069,7 +1170,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1077,7 +1178,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1085,7 +1186,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1093,7 +1194,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1101,7 +1202,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1109,7 +1210,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1117,7 +1218,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1125,7 +1226,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1133,7 +1234,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1141,7 +1242,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1162,19 +1263,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="19.15234375" customWidth="1"/>
-    <col min="2" max="2" width="65.61328125" customWidth="1"/>
-    <col min="3" max="3" width="13.921875" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="2" max="2" width="29.2265625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="28.953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,67 +1294,67 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:6" ht="84.9" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8">
         <v>43595</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>43595</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
         <v>43595</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="8">
         <v>43595</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="70" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2">
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8">
         <v>43595</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>43596</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1262,7 +1362,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1270,7 +1370,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1278,7 +1378,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1286,7 +1386,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1294,7 +1394,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1302,7 +1402,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1310,7 +1410,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1318,7 +1418,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1326,7 +1426,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1334,7 +1434,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1345,9 +1445,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ㄱ소공\팀프\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B5CC2D-9B17-428C-9F05-E40EF2B7733E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBAC3F1-EA30-410A-8F23-6868BD11BFB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>할일</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>주문시에 뜨는 팝업창이 테이블 버튼의 오른쪽으로 고정됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면, 메인 화면 제작 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB가 연동되어 있지 않아 DB에서 정보를 가져와야 하는 기능은 구현하지 못했다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +885,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
@@ -966,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,9 +984,15 @@
       <c r="C5" s="2">
         <v>43596</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
@@ -1314,7 +1328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ㄱ소공\팀프\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBAC3F1-EA30-410A-8F23-6868BD11BFB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4A26B-B52A-43FD-896D-2E684736ECDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>할일</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>DB가 연동되어 있지 않아 DB에서 정보를 가져와야 하는 기능은 구현하지 못했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Smell 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member.java 의 코드 스멜 1차 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선된 코드 Member.java를 git commit함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,17 +718,17 @@
       <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" customWidth="1"/>
-    <col min="4" max="4" width="14.31640625" customWidth="1"/>
-    <col min="5" max="5" width="26.31640625" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,7 +748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -756,7 +768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -774,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -782,7 +794,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -790,7 +802,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -798,7 +810,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -806,7 +818,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -814,7 +826,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -822,7 +834,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -830,7 +842,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -838,7 +850,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -846,7 +858,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -854,7 +866,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -862,7 +874,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -884,21 +896,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" customWidth="1"/>
-    <col min="2" max="2" width="40.2265625" customWidth="1"/>
-    <col min="3" max="3" width="9.953125" customWidth="1"/>
-    <col min="4" max="4" width="10.40625" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.15234375" customWidth="1"/>
+    <col min="2" max="2" width="40.23046875" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" customWidth="1"/>
+    <col min="5" max="5" width="29.15234375" customWidth="1"/>
+    <col min="6" max="6" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -918,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -936,7 +948,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="60.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -954,7 +966,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -974,7 +986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1002,7 +1014,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1010,7 +1022,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1018,7 +1030,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1026,7 +1038,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1034,7 +1046,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1042,7 +1054,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1050,7 +1062,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1058,7 +1070,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1066,7 +1078,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1074,7 +1086,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1082,7 +1094,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1108,9 +1120,9 @@
       <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1176,7 +1188,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -1184,7 +1196,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1192,7 +1204,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1200,7 +1212,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1208,7 +1220,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1216,7 +1228,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1224,7 +1236,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1232,7 +1244,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1240,7 +1252,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1248,7 +1260,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1256,7 +1268,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1277,18 +1289,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.2265625" customWidth="1"/>
+    <col min="2" max="2" width="29.23046875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.953125" customWidth="1"/>
+    <col min="6" max="6" width="28.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="84.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1348,7 +1360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1368,15 +1380,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43602</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1384,7 +1406,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1392,7 +1414,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1400,7 +1422,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1408,7 +1430,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1416,7 +1438,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1424,7 +1446,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1432,7 +1454,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1440,7 +1462,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1448,7 +1470,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1459,8 +1481,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4A26B-B52A-43FD-896D-2E684736ECDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB630A90-F7F7-4645-B465-1309E0480913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4545" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>할일</t>
   </si>
@@ -169,6 +169,37 @@
   </si>
   <si>
     <t>개선된 코드 Member.java를 git commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 테이블 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고, 회원, 테이블에 DB TABLE 생성하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성한 테이블 sql.파일을 git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu Table에서 사용된 재료에 여러 속성값을 넣기 위한 자료 조사가 더 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Eclipse와 MySql DB 연동 및 testing</t>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testing 코드 git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 gui java 파일에서 tomcat server가 연결문제 처리하는데 시간 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,17 +749,17 @@
       <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.27734375" customWidth="1"/>
+    <col min="5" max="5" width="26.27734375" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -748,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -768,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -786,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -794,7 +825,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -802,7 +833,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -810,7 +841,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -818,7 +849,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -826,7 +857,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -834,7 +865,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -842,7 +873,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -850,7 +881,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -858,7 +889,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -866,7 +897,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -874,7 +905,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -900,17 +931,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="27.15234375" customWidth="1"/>
-    <col min="2" max="2" width="40.23046875" customWidth="1"/>
-    <col min="3" max="3" width="9.921875" customWidth="1"/>
-    <col min="4" max="4" width="10.3828125" customWidth="1"/>
-    <col min="5" max="5" width="29.15234375" customWidth="1"/>
-    <col min="6" max="6" width="23.23046875" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.94140625" customWidth="1"/>
+    <col min="4" max="4" width="10.38671875" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,7 +979,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -966,7 +997,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -986,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1014,7 +1045,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1022,7 +1053,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1030,7 +1061,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1038,7 +1069,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1046,7 +1077,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1054,7 +1085,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1062,7 +1093,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1070,7 +1101,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1078,7 +1109,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1086,7 +1117,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1094,7 +1125,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1116,13 +1147,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1162,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1180,23 +1214,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1204,7 +1262,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1212,7 +1270,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1220,7 +1278,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1228,7 +1286,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1236,7 +1294,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1244,7 +1302,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1252,7 +1310,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1260,7 +1318,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1268,7 +1326,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1279,8 +1337,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1289,18 +1348,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.921875" customWidth="1"/>
+    <col min="6" max="6" width="28.94140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1340,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1360,7 +1419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1398,7 +1457,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1406,7 +1465,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1414,7 +1473,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1422,7 +1481,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1430,7 +1489,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1438,7 +1497,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1446,7 +1505,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1454,7 +1513,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1462,7 +1521,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1470,7 +1529,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB630A90-F7F7-4645-B465-1309E0480913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24015BAF-738E-4FA0-9506-6A637BB78F08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4545" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7688" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>할일</t>
   </si>
@@ -191,15 +191,43 @@
     <t>Java Eclipse와 MySql DB 연동 및 testing</t>
   </si>
   <si>
-    <t>Java와 Mysql 연동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testing 코드 git commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>실제 gui java 파일에서 tomcat server가 연결문제 처리하는데 시간 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 Storage.java git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member.java와 MySql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage.java와 Mysql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tabel.java, Menu.java MySql 연동하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1176,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
@@ -1236,7 +1264,7 @@
     </row>
     <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -1248,32 +1276,54 @@
         <v>43603</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="54.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43603</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.7">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43603</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\cygwin64\home\befly\github\SitDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24015BAF-738E-4FA0-9506-6A637BB78F08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BA426-AD4B-4297-95A4-CA25A701ACFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7688" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>할일</t>
   </si>
@@ -191,6 +191,10 @@
     <t>Java Eclipse와 MySql DB 연동 및 testing</t>
   </si>
   <si>
+    <t>Java와 Mysql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testing 코드 git commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,35 +203,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java와 Mysql 연동하기(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java와 Mysql 연동하기(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정한 Storage.java git commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java와 Mysql 연동하기(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member.java와 MySql 연동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Storage.java와 Mysql 연동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java와 Mysql 연동하기(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tabel.java, Menu.java MySql 연동하기</t>
+    <t>메뉴 주문 시, 재료 재고량을 반영하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블에서 메뉴를 주문할 시, 해당 메뉴의 재료가 줄어든다. 재료가 부족하다면 주문할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 파일 commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안성이 낮음. 개선이 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu 파일의 재료 입력란 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에는 한 메뉴에 하나의 재료만 입력할 수 있었음. 수정 뒤엔 여러 메뉴 입력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu 파일 commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 문자열을 분리하는 기능을 넣지 못함. 수정 필요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,17 +781,17 @@
       <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.27734375" customWidth="1"/>
-    <col min="5" max="5" width="26.27734375" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -827,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -845,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -853,7 +857,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -861,7 +865,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -869,7 +873,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -877,7 +881,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -885,7 +889,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -893,7 +897,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -901,7 +905,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -909,7 +913,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -917,7 +921,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -925,7 +929,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -933,7 +937,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -959,17 +963,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="40.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.94140625" customWidth="1"/>
-    <col min="4" max="4" width="10.38671875" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
     <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1011,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1025,7 +1029,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1049,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1073,7 +1077,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1081,7 +1085,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1089,7 +1093,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1097,7 +1101,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1105,7 +1109,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1113,7 +1117,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1121,7 +1125,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1129,7 +1133,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1137,7 +1141,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1145,7 +1149,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1153,7 +1157,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1175,16 +1179,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1262,9 +1267,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -1276,59 +1281,61 @@
         <v>43603</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="138" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43594</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="2">
-        <v>43602</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43603</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
-      <c r="A7" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
-        <v>43603</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.7">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>43594</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43597</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="2">
-        <v>43603</v>
-      </c>
+      <c r="F7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1336,7 +1343,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1344,7 +1351,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1352,7 +1359,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1360,7 +1367,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1368,7 +1375,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1376,7 +1383,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1402,14 +1409,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.94140625" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1507,7 +1514,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1515,7 +1522,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1523,7 +1530,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1531,7 +1538,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1539,7 +1546,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1547,7 +1554,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1555,7 +1562,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1563,7 +1570,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1571,7 +1578,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1579,7 +1586,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\cygwin64\home\befly\github\SitDown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8BA426-AD4B-4297-95A4-CA25A701ACFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12451A03-AA0B-4380-A85C-63BB676862CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>할일</t>
   </si>
@@ -191,10 +191,6 @@
     <t>Java Eclipse와 MySql DB 연동 및 testing</t>
   </si>
   <si>
-    <t>Java와 Mysql 연동하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testing 코드 git commit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,35 +199,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴 주문 시, 재료 재고량을 반영하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블에서 메뉴를 주문할 시, 해당 메뉴의 재료가 줄어든다. 재료가 부족하다면 주문할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table 파일 commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보안성이 낮음. 개선이 필요함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu 파일의 재료 입력란 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에는 한 메뉴에 하나의 재료만 입력할 수 있었음. 수정 뒤엔 여러 메뉴 입력 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu 파일 commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료 문자열을 분리하는 기능을 넣지 못함. 수정 필요.</t>
+    <t>Java와 Mysql 연동하기(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 Storage.java git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member.java와 MySql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage.java와 Mysql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java와 Mysql 연동하기(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tabel.java, Menu.java MySql 연동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Smell 제거</t>
+  </si>
+  <si>
+    <t>Menu.java 의 코드 스멜 1차 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선된 코드 Menu.java를 git commit함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -781,17 +788,17 @@
       <selection activeCell="F3" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.15234375" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -831,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -849,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -857,7 +864,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
@@ -865,7 +872,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -873,7 +880,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -881,7 +888,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -889,7 +896,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -897,7 +904,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -905,7 +912,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -913,7 +920,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -921,7 +928,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -929,7 +936,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -937,7 +944,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -963,17 +970,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.15234375" customWidth="1"/>
+    <col min="2" max="2" width="40.23046875" customWidth="1"/>
+    <col min="3" max="3" width="9.921875" customWidth="1"/>
+    <col min="4" max="4" width="10.3828125" customWidth="1"/>
+    <col min="5" max="5" width="29.15234375" customWidth="1"/>
+    <col min="6" max="6" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1018,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
@@ -1029,7 +1036,7 @@
       </c>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1077,7 +1084,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1085,7 +1092,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1093,7 +1100,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1101,7 +1108,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1109,7 +1116,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1117,7 +1124,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1125,7 +1132,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1133,7 +1140,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1141,7 +1148,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1149,7 +1156,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1157,7 +1164,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1179,17 +1186,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1267,9 +1273,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>43</v>
@@ -1281,61 +1287,59 @@
         <v>43603</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="138" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43602</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D6" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>43603</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2">
-        <v>43594</v>
-      </c>
-      <c r="D7" s="2">
-        <v>43597</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>43603</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1343,7 +1347,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1351,7 +1355,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1359,7 +1363,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1367,7 +1371,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1375,7 +1379,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1383,7 +1387,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1405,18 +1409,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.23046875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -1452,11 +1456,9 @@
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -1472,11 +1474,9 @@
       <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
@@ -1492,11 +1492,9 @@
       <c r="E4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1514,15 +1512,25 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43603</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1530,7 +1538,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1538,7 +1546,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1546,7 +1554,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1554,7 +1562,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1562,7 +1570,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1570,7 +1578,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1578,7 +1586,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1586,7 +1594,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12451A03-AA0B-4380-A85C-63BB676862CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2AA44-A6D5-4D20-8D5B-6B6FDC29946F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>할일</t>
   </si>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>개선된 코드 Menu.java를 git commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage.java 의 코드 스멜 1차 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선된 코드 Storage.java를 git commit함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1410,7 +1418,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -1530,12 +1538,22 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43603</v>
+      </c>
+      <c r="D7" s="8">
+        <v>43603</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\befly\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C2AA44-A6D5-4D20-8D5B-6B6FDC29946F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0090C-29BB-48AD-A419-52AED71CC0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-3195" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>할일</t>
   </si>
@@ -247,6 +247,58 @@
   </si>
   <si>
     <t>개선된 코드 Storage.java를 git commit함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 주문 시, 재료 재고량을 반영하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블에서 메뉴를 주문할 시, 해당 메뉴의 재료가 줄어든다. 재료가 부족하다면 주문할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table 파일 commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안성이 낮음. 개선이 필요함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu 파일의 재료 입력란 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에는 한 메뉴에 하나의 재료만 입력할 수 있었음. 수정 뒤엔 여러 메뉴 입력 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu 파일 commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 문자열을 분리하는 기능을 넣지 못함. 수정 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table.java 테이블 추가/제거 관련 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에는 테이블 추가/제거가 gui에 반영되지 않음. 그리고 테이블 메뉴 추가/ 결제 기능이 반영되지 않음. 이벤트 핸들러 수정 후, 테이블 추가/제거 기능 사용 가능. 테이블 메뉴 추가/결제 기능 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 선택하는 JComboBox 동기화 방법이 효율적이지 않음. 다른 방법 필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table.java 기타 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1) 기존에 테이블 미선택 오류, 테이블 삭제 오류, 재료 소진 오류 등이 사용자에게 보여지지 않던 것을 수정함. 2) 메뉴 추가 코드를 개선 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,14 +345,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -792,21 +838,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F3"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.15234375" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -826,61 +872,85 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6">
         <v>43594</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>43597</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4">
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="6">
         <v>43594</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>43597</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="E3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43600</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43606</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43600</v>
+      </c>
+      <c r="D5" s="6">
+        <v>43606</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -888,7 +958,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -896,7 +966,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -904,7 +974,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -912,7 +982,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -920,15 +990,15 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -936,7 +1006,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -944,7 +1014,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -952,7 +1022,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -978,17 +1048,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.15234375" customWidth="1"/>
-    <col min="2" max="2" width="40.23046875" customWidth="1"/>
-    <col min="3" max="3" width="9.921875" customWidth="1"/>
-    <col min="4" max="4" width="10.3828125" customWidth="1"/>
-    <col min="5" max="5" width="29.15234375" customWidth="1"/>
-    <col min="6" max="6" width="23.23046875" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1008,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="73.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1026,45 +1096,45 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>43594</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>43596</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>43595</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>43597</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="64.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1084,7 +1154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1092,7 +1162,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1100,7 +1170,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1108,7 +1178,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1116,7 +1186,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1124,7 +1194,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1132,7 +1202,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1140,7 +1210,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1148,7 +1218,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1156,7 +1226,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1164,7 +1234,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1172,7 +1242,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1198,12 +1268,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,45 +1293,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>43594</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>43597</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
         <v>43594</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>43597</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1281,7 +1351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1301,7 +1371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1319,8 +1389,8 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1333,7 +1403,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1347,7 +1417,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1355,7 +1425,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1363,7 +1433,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1371,7 +1441,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1379,7 +1449,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1387,7 +1457,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1395,7 +1465,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1417,18 +1487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.921875" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,61 +1518,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>43595</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="6">
         <v>43595</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>43595</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>43595</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>43595</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>43596</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1515,12 +1585,12 @@
       <c r="D5" s="2">
         <v>43602</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1538,25 +1608,25 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>43603</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>43603</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1564,7 +1634,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1572,7 +1642,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1580,7 +1650,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1588,7 +1658,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1596,7 +1666,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1604,7 +1674,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1612,7 +1682,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\befly\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B0090C-29BB-48AD-A419-52AED71CC0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB66257-36F2-402C-B979-9C010367F30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3195" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16448" windowHeight="4545" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>할일</t>
   </si>
@@ -299,6 +299,18 @@
   </si>
   <si>
     <t xml:space="preserve">1) 기존에 테이블 미선택 오류, 테이블 삭제 오류, 재료 소진 오류 등이 사용자에게 보여지지 않던 것을 수정함. 2) 메뉴 추가 코드를 개선 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 Member.java git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 Menu.java git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI Table.java에서 주문내역에 Jtable에 추가되지 않는 문제점이 발견 -&gt; Table 주문내역을 데이터베이스에 저장하는데 시간이 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,11 +850,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C14FFC-A98E-D14C-9FD6-16CE2D228C25}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -852,7 +864,7 @@
     <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
@@ -892,7 +904,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
@@ -912,7 +924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>67</v>
       </c>
@@ -932,7 +944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -950,7 +962,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -958,7 +970,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -966,7 +978,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -974,7 +986,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -982,7 +994,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -990,7 +1002,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -998,7 +1010,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1006,7 +1018,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1014,7 +1026,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1022,7 +1034,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1048,7 +1060,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="40.21875" customWidth="1"/>
@@ -1058,7 +1070,7 @@
     <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="73.7" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1096,7 +1108,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1126,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="64.7" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1162,7 +1174,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1170,7 +1182,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1178,7 +1190,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1186,7 +1198,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1194,7 +1206,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1202,7 +1214,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1210,7 +1222,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1218,7 +1230,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1226,7 +1238,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1234,7 +1246,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1242,7 +1254,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1264,16 +1276,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="86.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="103.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1371,7 +1383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="54.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="54.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1389,7 +1401,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
       <c r="A7" s="5" t="s">
         <v>49</v>
       </c>
@@ -1399,11 +1411,15 @@
       <c r="C7" s="2">
         <v>43603</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="229.5" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1413,11 +1429,17 @@
       <c r="C8" s="2">
         <v>43603</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1425,7 +1447,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1433,7 +1455,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1441,7 +1463,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1449,7 +1471,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1457,7 +1479,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1465,7 +1487,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1491,14 +1513,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +1558,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -1554,7 +1576,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
@@ -1572,7 +1594,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1590,7 +1612,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1608,7 +1630,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
@@ -1626,7 +1648,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1634,7 +1656,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1642,7 +1664,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1650,7 +1672,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1658,7 +1680,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1666,7 +1688,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1674,7 +1696,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1682,7 +1704,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB66257-36F2-402C-B979-9C010367F30B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962BBA6-15FA-4650-8C30-0FF4D86EA692}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16448" windowHeight="4545" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>할일</t>
   </si>
@@ -94,9 +94,6 @@
     <t>기존 코드의 'Chicken Store' 관련 코드 수정 및 개발하려는 시스템에 불필요한 기능 삭제</t>
   </si>
   <si>
-    <t>개선된 코드 Table.java, Menu.java. Storage.java, Member.java,Final.java 를 git commit 함</t>
-  </si>
-  <si>
     <t>메뉴 주문창 기능 개선</t>
   </si>
   <si>
@@ -311,6 +308,22 @@
   </si>
   <si>
     <t>GUI Table.java에서 주문내역에 Jtable에 추가되지 않는 문제점이 발견 -&gt; Table 주문내역을 데이터베이스에 저장하는데 시간이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 코드 스멜 2차 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선된 코드 Table.java, Menu.java. Storage.java, Member.java, Final.java 를 git commit 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개선된 코드 Table.java, Menu.java. Storage.java, Member.java, Final.java 를 git commit 함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 개선 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,17 +867,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.07421875" customWidth="1"/>
+    <col min="4" max="4" width="14.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.3046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,12 +897,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -898,18 +911,18 @@
         <v>43597</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="41.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C3" s="6">
         <v>43594</v>
@@ -918,18 +931,18 @@
         <v>43597</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C4" s="2">
         <v>43600</v>
@@ -938,18 +951,18 @@
         <v>43606</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C5" s="6">
         <v>43600</v>
@@ -958,11 +971,11 @@
         <v>43606</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="48.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -970,7 +983,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -978,7 +991,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -986,7 +999,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -994,7 +1007,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1002,7 +1015,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -1010,7 +1023,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1018,7 +1031,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1026,7 +1039,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1034,7 +1047,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1060,17 +1073,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.07421875" customWidth="1"/>
+    <col min="2" max="2" width="40.23046875" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" customWidth="1"/>
+    <col min="5" max="5" width="29.07421875" customWidth="1"/>
+    <col min="6" max="6" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1090,9 +1103,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.7" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -1101,19 +1114,19 @@
         <v>43594</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="60.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>43594</v>
@@ -1122,16 +1135,16 @@
         <v>43596</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="6">
         <v>43595</v>
@@ -1140,13 +1153,13 @@
         <v>43597</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64.7" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,13 +1173,13 @@
         <v>43602</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1174,7 +1187,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1182,7 +1195,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1190,7 +1203,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1198,7 +1211,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1206,7 +1219,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1214,7 +1227,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1222,7 +1235,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1230,7 +1243,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1238,7 +1251,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1246,7 +1259,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1254,7 +1267,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1276,16 +1289,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1343,12 +1356,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>43600</v>
@@ -1357,18 +1370,18 @@
         <v>43603</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>43600</v>
@@ -1377,18 +1390,18 @@
         <v>43603</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="54.95" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>43602</v>
@@ -1397,16 +1410,16 @@
         <v>43603</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C7" s="2">
         <v>43603</v>
@@ -1415,16 +1428,16 @@
         <v>43607</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="229.5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="210" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C8" s="2">
         <v>43603</v>
@@ -1433,13 +1446,13 @@
         <v>43607</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1447,7 +1460,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1455,7 +1468,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1463,7 +1476,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1471,7 +1484,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1479,7 +1492,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1487,7 +1500,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1509,18 +1522,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.23046875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84.95" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1554,16 +1567,16 @@
         <v>43595</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="6">
         <v>43595</v>
@@ -1572,16 +1585,16 @@
         <v>43595</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>43595</v>
@@ -1590,16 +1603,16 @@
         <v>43596</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>43602</v>
@@ -1608,16 +1621,16 @@
         <v>43602</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>43603</v>
@@ -1626,16 +1639,16 @@
         <v>43603</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="C7" s="6">
         <v>43603</v>
@@ -1644,19 +1657,31 @@
         <v>43603</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43607</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43619</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1664,7 +1689,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1672,7 +1697,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1680,7 +1705,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1688,7 +1713,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1696,7 +1721,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1704,7 +1729,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3962BBA6-15FA-4650-8C30-0FF4D86EA692}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7397C-776E-4051-879C-8A305535C37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7688" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t>할일</t>
   </si>
@@ -324,6 +324,38 @@
   </si>
   <si>
     <t>추가 개선 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sonarcloub 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sonarcloud 버그 15개 수정하기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 java클래스 git commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 분석결과 조회가 불가능한 상황이라 적절한 수정인지를 확인하지 못했지만 수정작업을 완료하였음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안성 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL 접속 ID, PW에 대한 암호화와 복호화 처리하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES128.java 클래스를 GIT COMMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect driver 수행시, id, pw를 hard coding하지 않고 암호화와 복호화를 거쳐서 연결하도록 코드를 수정하였음. 적절한 방법인가에 대한 분석 및 점검이 미흡하였음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,17 +899,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="21.84375" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.07421875" customWidth="1"/>
-    <col min="4" max="4" width="14.3046875" customWidth="1"/>
-    <col min="5" max="5" width="26.3046875" customWidth="1"/>
-    <col min="6" max="6" width="17.84375" customWidth="1"/>
+    <col min="3" max="3" width="15.0546875" customWidth="1"/>
+    <col min="4" max="4" width="14.27734375" customWidth="1"/>
+    <col min="5" max="5" width="26.27734375" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -897,7 +929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="44.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -917,7 +949,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="41.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
@@ -937,7 +969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -957,7 +989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -975,7 +1007,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -983,7 +1015,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -991,7 +1023,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -999,7 +1031,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1007,7 +1039,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1015,7 +1047,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -1023,7 +1055,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1031,7 +1063,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1039,7 +1071,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1047,7 +1079,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1073,17 +1105,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="27.07421875" customWidth="1"/>
-    <col min="2" max="2" width="40.23046875" customWidth="1"/>
-    <col min="3" max="3" width="9.84375" customWidth="1"/>
-    <col min="4" max="4" width="10.3046875" customWidth="1"/>
-    <col min="5" max="5" width="29.07421875" customWidth="1"/>
-    <col min="6" max="6" width="23.23046875" customWidth="1"/>
+    <col min="1" max="1" width="27.0546875" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.27734375" customWidth="1"/>
+    <col min="5" max="5" width="29.0546875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1153,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="61.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1139,7 +1171,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1159,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1187,7 +1219,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1195,7 +1227,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1203,7 +1235,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1211,7 +1243,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1219,7 +1251,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1227,7 +1259,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1235,7 +1267,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1243,7 +1275,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1251,7 +1283,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1259,7 +1291,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1267,7 +1299,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1289,16 +1321,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1356,7 +1388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1376,7 +1408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1396,7 +1428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1414,7 +1446,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
       <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
@@ -1432,7 +1464,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="210" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="229.5" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
@@ -1452,23 +1484,45 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:6" ht="172.15" x14ac:dyDescent="0.7">
+      <c r="A9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="D9" s="2">
+        <v>43634</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="267.75" x14ac:dyDescent="0.7">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1476,7 +1530,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1484,7 +1538,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1492,7 +1546,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1500,7 +1554,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1522,18 +1576,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="2" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.84375" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1625,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1589,7 +1643,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1607,7 +1661,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1625,7 +1679,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1697,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -1661,7 +1715,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.7">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,7 +1735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1689,7 +1743,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1697,7 +1751,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1705,7 +1759,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1713,7 +1767,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1721,7 +1775,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1729,7 +1783,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuprime085\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjh51\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7397C-776E-4051-879C-8A305535C37F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C02251-B2C9-4313-AA9E-257E3548B159}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7688" activeTab="2" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>할일</t>
   </si>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면, 메인 화면 제작 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB가 연동되어 있지 않아 DB에서 정보를 가져와야 하는 기능은 구현하지 못했다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,6 +352,72 @@
   </si>
   <si>
     <t>connect driver 수행시, id, pw를 hard coding하지 않고 암호화와 복호화를 거쳐서 연결하도록 코드를 수정하였음. 적절한 방법인가에 대한 분석 및 점검이 미흡하였음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.html, main.html 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지와 DB 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지가 데이터베이스와 연동될 수 있도록 프로그램 설치 후 php 파일 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbConnect.php, join.php, login.php 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 조회 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리 현황 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">데이터베이스에 저장되어 있는 메뉴 정보를 보고 메뉴를 웹페이지에 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>출력하는 기능 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베스에 저장되어 있는 테이블 정보를 보고 비어있는 테이블과 손님이 있는 테이블 출력하는 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbConnect.php, showMenu.php 작성
+로그인 기능은 필요 없어서 login.html, join.html, login.php, join.php 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observer pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbConnect.php, seats.php 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbConnect.php, observer.php, SplSubject.php, SplObserver.php 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php에서 observer pattern 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +428,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -376,6 +438,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -899,17 +969,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.0546875" customWidth="1"/>
-    <col min="4" max="4" width="14.27734375" customWidth="1"/>
-    <col min="5" max="5" width="26.27734375" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.04296875" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="26.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,12 +999,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="44.2" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="6">
         <v>43594</v>
@@ -943,18 +1013,18 @@
         <v>43597</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="41.2" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="41.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="C3" s="6">
         <v>43594</v>
@@ -963,18 +1033,18 @@
         <v>43597</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>43600</v>
@@ -983,18 +1053,18 @@
         <v>43606</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C5" s="6">
         <v>43600</v>
@@ -1003,11 +1073,11 @@
         <v>43606</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1015,7 +1085,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1023,7 +1093,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1031,7 +1101,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1039,7 +1109,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1047,7 +1117,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -1055,7 +1125,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1063,7 +1133,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1071,7 +1141,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1079,7 +1149,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1101,21 +1171,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="27.0546875" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.27734375" customWidth="1"/>
-    <col min="5" max="5" width="29.0546875" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.04296875" customWidth="1"/>
+    <col min="2" max="2" width="40.2265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="29.04296875" customWidth="1"/>
+    <col min="6" max="6" width="23.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,25 +1205,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>43594</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="61.05" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="61.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1241,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1191,59 +1261,99 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>43596</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>43602</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43603</v>
+      </c>
+      <c r="D6" s="6">
+        <v>43607</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="101.7" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43608</v>
+      </c>
+      <c r="D7" s="6">
+        <v>43635</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.75">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+      <c r="A9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1251,7 +1361,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1259,7 +1369,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1267,7 +1377,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1275,7 +1385,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1283,7 +1393,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1291,7 +1401,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1299,7 +1409,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1321,16 +1431,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A7F25C-F87D-0347-A3F0-84405B967072}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95.65" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1370,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="114.75" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1388,12 +1498,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.75">
       <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>43600</v>
@@ -1402,18 +1512,18 @@
         <v>43603</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.75">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="133.9" x14ac:dyDescent="0.7">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>43600</v>
@@ -1422,18 +1532,18 @@
         <v>43603</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.7">
+    </row>
+    <row r="6" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
         <v>43602</v>
@@ -1442,16 +1552,16 @@
         <v>43603</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="57.4" x14ac:dyDescent="0.7">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>43603</v>
@@ -1460,16 +1570,16 @@
         <v>43607</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="229.5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="216" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="2">
         <v>43603</v>
@@ -1478,36 +1588,36 @@
         <v>43607</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="172.15" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.75">
       <c r="A9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
         <v>43634</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="252" x14ac:dyDescent="0.75">
+      <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="267.75" x14ac:dyDescent="0.7">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C10" s="2">
         <v>43634</v>
@@ -1516,13 +1626,13 @@
         <v>43635</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1530,7 +1640,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1538,7 +1648,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1546,7 +1656,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1554,7 +1664,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1576,18 +1686,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.2265625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1621,11 +1731,11 @@
         <v>43595</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.75">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1753,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.75">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1661,12 +1771,12 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>43602</v>
@@ -1675,16 +1785,16 @@
         <v>43602</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>43603</v>
@@ -1693,16 +1803,16 @@
         <v>43603</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.7">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="6">
         <v>43603</v>
@@ -1711,16 +1821,16 @@
         <v>43603</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <v>43607</v>
@@ -1729,13 +1839,13 @@
         <v>43619</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.7">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1743,7 +1853,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1751,7 +1861,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1759,7 +1869,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1767,7 +1877,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1775,7 +1885,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1783,7 +1893,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>

--- a/IndividualWorkSheet.xlsx
+++ b/IndividualWorkSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjh51\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이정원\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C02251-B2C9-4313-AA9E-257E3548B159}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C45F41-9FF6-4B64-BBD0-B3867AE2EC85}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{FCAA3FF0-AA75-C645-967F-E4C4CFF74051}"/>
   </bookViews>
   <sheets>
     <sheet name="박서린" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="104">
   <si>
     <t>할일</t>
   </si>
@@ -418,6 +418,30 @@
   </si>
   <si>
     <t>php에서 observer pattern 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final.java에서 전체 잔고가 제대로 표시 안 되는 것을 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개선된 코드 Final.java 를 git commit 함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 코드 스멜 3차 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개선된 코드 Menu.java. Storage.java, Member.java 를 git commit 함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나큐브 업데이트 오류로 확인 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,17 +993,17 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="21.84375" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="15.04296875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.07421875" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" customWidth="1"/>
+    <col min="5" max="5" width="26.23046875" customWidth="1"/>
+    <col min="6" max="6" width="17.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="44.2" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -1019,7 +1043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="41.2" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -1039,7 +1063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>65</v>
       </c>
@@ -1059,7 +1083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
@@ -1077,7 +1101,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="49.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="49" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
@@ -1085,7 +1109,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -1093,7 +1117,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -1101,7 +1125,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -1109,7 +1133,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1117,7 +1141,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="2"/>
@@ -1125,7 +1149,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1133,7 +1157,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1141,7 +1165,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1149,7 +1173,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1171,21 +1195,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67034FD-BFF4-A549-800D-AA3E9E18B838}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="98" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.04296875" customWidth="1"/>
-    <col min="2" max="2" width="40.2265625" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="29.04296875" customWidth="1"/>
-    <col min="6" max="6" width="23.2265625" customWidth="1"/>
+    <col min="1" max="1" width="27.07421875" customWidth="1"/>
+    <col min="2" max="2" width="40.23046875" customWidth="1"/>
+    <col min="3" max="3" width="10.69140625" customWidth="1"/>
+    <col min="4" max="4" width="10.23046875" customWidth="1"/>
+    <col min="5" max="5" width="29.07421875" customWidth="1"/>
+    <col min="6" max="6" width="23.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="73.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
@@ -1223,7 +1247,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="61.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="61" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1241,7 +1265,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="64.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1281,7 +1305,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
@@ -1299,7 +1323,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="101.7" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="101.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>89</v>
       </c>
@@ -1317,7 +1341,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>90</v>
       </c>
@@ -1335,7 +1359,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -1353,7 +1377,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -1361,7 +1385,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1369,7 +1393,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1377,7 +1401,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1385,7 +1409,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1393,7 +1417,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1401,7 +1425,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1409,7 +1433,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -1435,12 +1459,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6796875" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1498,7 +1522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="126" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1518,7 +1542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="126" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="122.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1538,7 +1562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -1556,7 +1580,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="70" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -1574,7 +1598,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="216" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" ht="210" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="162" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:6" ht="157.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -1612,7 +1636,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="252" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" ht="262.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1640,7 +1664,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1648,7 +1672,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1656,7 +1680,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1664,7 +1688,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -1686,18 +1710,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04FA645-8FC6-F147-A0B8-D80F8ED71AE2}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.04296875" defaultRowHeight="18" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.2265625" customWidth="1"/>
+    <col min="2" max="2" width="29.23046875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.81640625" customWidth="1"/>
+    <col min="6" max="6" width="28.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="85.05" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1735,7 +1759,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1777,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1795,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -1789,7 +1813,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -1807,7 +1831,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:6" ht="35" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -1825,7 +1849,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:6" ht="70" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1845,23 +1869,45 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43634</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43635</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:6" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43635</v>
+      </c>
+      <c r="D10" s="6">
+        <v>43635</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -1869,7 +1915,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1877,7 +1923,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -1885,7 +1931,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -1893,7 +1939,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
